--- a/ZeenyxWebsite_JavaSelenium/TestData/ZeenyxTestData.xlsx
+++ b/ZeenyxWebsite_JavaSelenium/TestData/ZeenyxTestData.xlsx
@@ -3,15 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E7FA2F8B-A531-4BB8-91C0-42F5DFE61A53}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7C935225-88D7-4116-8AA5-1F7BC5129FA6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="29100" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="29100" windowHeight="16500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ZeenyxTestData" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:I8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,14 +23,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+  <si>
+    <t>FirstName</t>
+  </si>
   <si>
     <t>LastName</t>
   </si>
   <si>
-    <t>FirstName</t>
-  </si>
-  <si>
     <t>ComapanyName</t>
   </si>
   <si>
@@ -65,19 +67,49 @@
     <t>Chikkasandra</t>
   </si>
   <si>
-    <t>Devinagar</t>
-  </si>
-  <si>
     <t>Bangalore</t>
   </si>
   <si>
+    <t>MA</t>
+  </si>
+  <si>
     <t>Matryx@matryxsoft.com</t>
   </si>
   <si>
     <t xml:space="preserve">Hi , I want information about Ascential test automation tool </t>
   </si>
   <si>
-    <t>MA</t>
+    <t>sTxt_FirstName</t>
+  </si>
+  <si>
+    <t>sTxt_LastName</t>
+  </si>
+  <si>
+    <t>sTxt_CompanyName</t>
+  </si>
+  <si>
+    <t>sTxt_Email</t>
+  </si>
+  <si>
+    <t>sTxt_ConfirmEmail</t>
+  </si>
+  <si>
+    <t>sTxt_Request</t>
+  </si>
+  <si>
+    <t>Matryx</t>
+  </si>
+  <si>
+    <t>sDropdown_Subject</t>
+  </si>
+  <si>
+    <t>sTxt_Message</t>
+  </si>
+  <si>
+    <t>Request Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi , I would like to get information about Ascential test automation tool </t>
   </si>
 </sst>
 </file>
@@ -122,9 +154,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -406,91 +443,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="54.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:13" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{78D84FD5-6B40-4C5F-B22A-0B5CD42F1C19}"/>
@@ -498,4 +532,129 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DE3C3A-7F5D-4506-AA45-471327F1CE29}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{F87EE788-60E8-45CB-A887-D1160AF89DDD}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{F1F30A34-0EFC-4E07-86BE-215DA2507696}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582297DF-EA5F-4C63-997D-F100CA3627C3}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{32C77715-8B4F-4E11-A15E-9DC209B09D6E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>